--- a/訂餐系統設計.xlsx
+++ b/訂餐系統設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="15828" windowHeight="7824" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="10" r:id="rId1"/>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,9 +189,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,16 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,61 +348,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,121 +504,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +539,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,15 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -644,148 +644,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,7 +1840,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1899,8 +1899,8 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
